--- a/Documentation/ProjectDocumentation/Functional requirements.xlsx
+++ b/Documentation/ProjectDocumentation/Functional requirements.xlsx
@@ -4,29 +4,27 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="User Story by rol" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="User stories" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="priorization" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="priorization" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'User stories'!$A$1:$L$20</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">priorization!$A$3:$H$21</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_CEFE38D4_BF4A_4630_B4C2_BA99B939FECC_.wvu.FilterData">'User Story by rol'!$A$2:$H$22</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_CEFE38D4_BF4A_4630_B4C2_BA99B939FECC_.wvu.FilterData">priorization!$B$3:$G$21</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">priorization!$A$3:$H$22</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_7EA15FA4_353C_45C6_BAD0_F6F7468298D5_.wvu.FilterData">'User Story by rol'!$A$2:$H$22</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_7EA15FA4_353C_45C6_BAD0_F6F7468298D5_.wvu.FilterData">priorization!$B$3:$G$22</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CEFE38D4-BF4A-4630-B4C2-BA99B939FECC}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7EA15FA4-353C-45C6-BAD0-F6F7468298D5}" name="Filtro 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="cNxsZWXOPWSQUfRisD06dnnQNEFjBiF9jf6M8tPBvAE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="ethsWMXt9qGRRW4IdE8pf2SMqdqS3sv1fUp7VxVmLhU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>User Stories by rol</t>
   </si>
@@ -37,7 +35,7 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>Anonimus user</t>
+    <t>Anonymous user</t>
   </si>
   <si>
     <t>Log in</t>
@@ -58,7 +56,7 @@
     <t>Create admin</t>
   </si>
   <si>
-    <t>Detete admin</t>
+    <t>Delete admin</t>
   </si>
   <si>
     <t>Update admin</t>
@@ -76,109 +74,13 @@
     <t>See specific product</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>User story</t>
-  </si>
-  <si>
-    <t>IT#-1</t>
-  </si>
-  <si>
-    <t>As</t>
-  </si>
-  <si>
-    <t>administrator</t>
-  </si>
-  <si>
-    <t>I want</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>Be able to do all the administrator tasks</t>
-  </si>
-  <si>
-    <t>IT#-3</t>
-  </si>
-  <si>
-    <t>Create new products and update the catalog</t>
-  </si>
-  <si>
-    <t>IT#-10</t>
-  </si>
-  <si>
-    <t>administrator, anonimus user</t>
-  </si>
-  <si>
-    <t>See all products</t>
-  </si>
-  <si>
-    <t>IT#-12</t>
-  </si>
-  <si>
-    <t>See more details about a specific product</t>
-  </si>
-  <si>
-    <t>IT#-6</t>
-  </si>
-  <si>
-    <t>Create another user that can do admin tasks</t>
-  </si>
-  <si>
-    <t>IT#-11</t>
-  </si>
-  <si>
-    <t>See the metrics of the products on the catalog</t>
-  </si>
-  <si>
-    <t>IT#-2</t>
-  </si>
-  <si>
-    <t>Close my session</t>
-  </si>
-  <si>
-    <t>IT#-4</t>
-  </si>
-  <si>
-    <t>Eliminate a product that no longer belongs to my catalog</t>
-  </si>
-  <si>
-    <t>IT#-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See all the admins </t>
-  </si>
-  <si>
-    <t>IT#-7</t>
-  </si>
-  <si>
-    <t>Remove privileges of admin to other user</t>
-  </si>
-  <si>
-    <t>IT#-5</t>
-  </si>
-  <si>
-    <t>administrador, químico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update the information of a product </t>
-  </si>
-  <si>
-    <t>IT#-8</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>Change the information of other administrator</t>
+    <t>Add report</t>
   </si>
   <si>
     <t>Use case</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
   <si>
     <t>Complexity</t>
@@ -211,7 +113,13 @@
     <t>Low</t>
   </si>
   <si>
+    <t>Browse admins</t>
+  </si>
+  <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>Detete admin</t>
   </si>
   <si>
     <t>High</t>
@@ -221,10 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="17">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -249,68 +154,11 @@
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF999999"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,18 +181,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9FC5E8"/>
         <bgColor rgb="FF9FC5E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8BC34A"/>
-        <bgColor rgb="FF8BC34A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF7E3"/>
-        <bgColor rgb="FFEEF7E3"/>
       </patternFill>
     </fill>
     <fill>
@@ -415,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -462,77 +298,6 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -546,13 +311,13 @@
     <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -561,7 +326,7 @@
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -614,10 +379,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -828,7 +589,7 @@
     <col customWidth="1" min="1" max="1" width="4.88"/>
     <col customWidth="1" min="2" max="2" width="36.88"/>
     <col customWidth="1" min="3" max="3" width="14.63"/>
-    <col customWidth="1" min="4" max="4" width="15.63"/>
+    <col customWidth="1" min="4" max="4" width="17.75"/>
     <col customWidth="1" min="5" max="5" width="9.0"/>
     <col customWidth="1" min="6" max="6" width="12.25"/>
   </cols>
@@ -881,7 +642,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="10">
-        <f t="shared" ref="A4:A14" si="1">A3+1</f>
+        <f t="shared" ref="A4:A15" si="1">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -1078,7 +839,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="12" t="b">
         <v>1</v>
@@ -1089,10 +850,19 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="b">
+        <v>1</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -2548,7 +2318,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEFE38D4-BF4A-4630-B4C2-BA99B939FECC}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7EA15FA4-353C-45C6-BAD0-F6F7468298D5}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$H$22">
         <sortState ref="A2:H22">
           <sortCondition ref="B2:B22"/>
@@ -2578,2565 +2348,6 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="12.63"/>
-    <col customWidth="1" min="4" max="4" width="16.0"/>
-    <col customWidth="1" min="5" max="5" width="12.63"/>
-    <col customWidth="1" min="6" max="6" width="28.63"/>
-    <col customWidth="1" min="8" max="8" width="18.88"/>
-    <col customWidth="1" min="10" max="12" width="33.38"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="23">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="23">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="23">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="23">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="23">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="23">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="24">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="H21" s="40"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="H22" s="40"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="H23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
-      <c r="H24" s="40"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="H25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="H26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="H27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="H28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="H29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="H30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="E31" s="14"/>
-      <c r="H31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="H32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="H33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="H34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="H35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="H36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="H37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="H38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="H39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="H40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="H41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="H42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="H43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="H44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="H45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="H46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="H47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="H48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="H49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="H50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="H51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="H52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="H53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="H54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="H55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="H56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="H57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="H58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="H59" s="40"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="H60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="H61" s="40"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="H62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="H63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="H64" s="40"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="H65" s="40"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="40"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="H66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="H67" s="40"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="H68" s="40"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="H69" s="40"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="H70" s="40"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="40"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="H71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="40"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="H72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="H73" s="40"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="40"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="H74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="H75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="H76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="H77" s="40"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="H78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="H79" s="40"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="40"/>
-      <c r="L79" s="40"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="H80" s="40"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="40"/>
-      <c r="L80" s="40"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="H81" s="40"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="40"/>
-      <c r="L81" s="40"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="H82" s="40"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="40"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="H83" s="40"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="40"/>
-      <c r="L83" s="40"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="H84" s="40"/>
-      <c r="J84" s="40"/>
-      <c r="K84" s="40"/>
-      <c r="L84" s="40"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="H85" s="40"/>
-      <c r="J85" s="40"/>
-      <c r="K85" s="40"/>
-      <c r="L85" s="40"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="H86" s="40"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="40"/>
-      <c r="L86" s="40"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="H87" s="40"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="40"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="H88" s="40"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="40"/>
-      <c r="L88" s="40"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="H89" s="40"/>
-      <c r="J89" s="40"/>
-      <c r="K89" s="40"/>
-      <c r="L89" s="40"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="H90" s="40"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
-      <c r="L90" s="40"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="H91" s="40"/>
-      <c r="J91" s="40"/>
-      <c r="K91" s="40"/>
-      <c r="L91" s="40"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="H92" s="40"/>
-      <c r="J92" s="40"/>
-      <c r="K92" s="40"/>
-      <c r="L92" s="40"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="H93" s="40"/>
-      <c r="J93" s="40"/>
-      <c r="K93" s="40"/>
-      <c r="L93" s="40"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="H94" s="40"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="40"/>
-      <c r="L94" s="40"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="H95" s="40"/>
-      <c r="J95" s="40"/>
-      <c r="K95" s="40"/>
-      <c r="L95" s="40"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="H96" s="40"/>
-      <c r="J96" s="40"/>
-      <c r="K96" s="40"/>
-      <c r="L96" s="40"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="H97" s="40"/>
-      <c r="J97" s="40"/>
-      <c r="K97" s="40"/>
-      <c r="L97" s="40"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="H98" s="40"/>
-      <c r="J98" s="40"/>
-      <c r="K98" s="40"/>
-      <c r="L98" s="40"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="H99" s="40"/>
-      <c r="J99" s="40"/>
-      <c r="K99" s="40"/>
-      <c r="L99" s="40"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="H100" s="40"/>
-      <c r="J100" s="40"/>
-      <c r="K100" s="40"/>
-      <c r="L100" s="40"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="H101" s="40"/>
-      <c r="J101" s="40"/>
-      <c r="K101" s="40"/>
-      <c r="L101" s="40"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="H102" s="40"/>
-      <c r="J102" s="40"/>
-      <c r="K102" s="40"/>
-      <c r="L102" s="40"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="H103" s="40"/>
-      <c r="J103" s="40"/>
-      <c r="K103" s="40"/>
-      <c r="L103" s="40"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="H104" s="40"/>
-      <c r="J104" s="40"/>
-      <c r="K104" s="40"/>
-      <c r="L104" s="40"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="H105" s="40"/>
-      <c r="J105" s="40"/>
-      <c r="K105" s="40"/>
-      <c r="L105" s="40"/>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="H106" s="40"/>
-      <c r="J106" s="40"/>
-      <c r="K106" s="40"/>
-      <c r="L106" s="40"/>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="H107" s="40"/>
-      <c r="J107" s="40"/>
-      <c r="K107" s="40"/>
-      <c r="L107" s="40"/>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="H108" s="40"/>
-      <c r="J108" s="40"/>
-      <c r="K108" s="40"/>
-      <c r="L108" s="40"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="H109" s="40"/>
-      <c r="J109" s="40"/>
-      <c r="K109" s="40"/>
-      <c r="L109" s="40"/>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="H110" s="40"/>
-      <c r="J110" s="40"/>
-      <c r="K110" s="40"/>
-      <c r="L110" s="40"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="H111" s="40"/>
-      <c r="J111" s="40"/>
-      <c r="K111" s="40"/>
-      <c r="L111" s="40"/>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="H112" s="40"/>
-      <c r="J112" s="40"/>
-      <c r="K112" s="40"/>
-      <c r="L112" s="40"/>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="H113" s="40"/>
-      <c r="J113" s="40"/>
-      <c r="K113" s="40"/>
-      <c r="L113" s="40"/>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="H114" s="40"/>
-      <c r="J114" s="40"/>
-      <c r="K114" s="40"/>
-      <c r="L114" s="40"/>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="H115" s="40"/>
-      <c r="J115" s="40"/>
-      <c r="K115" s="40"/>
-      <c r="L115" s="40"/>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="H116" s="40"/>
-      <c r="J116" s="40"/>
-      <c r="K116" s="40"/>
-      <c r="L116" s="40"/>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="H117" s="40"/>
-      <c r="J117" s="40"/>
-      <c r="K117" s="40"/>
-      <c r="L117" s="40"/>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="H118" s="40"/>
-      <c r="J118" s="40"/>
-      <c r="K118" s="40"/>
-      <c r="L118" s="40"/>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="H119" s="40"/>
-      <c r="J119" s="40"/>
-      <c r="K119" s="40"/>
-      <c r="L119" s="40"/>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="H120" s="40"/>
-      <c r="J120" s="40"/>
-      <c r="K120" s="40"/>
-      <c r="L120" s="40"/>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="H121" s="40"/>
-      <c r="J121" s="40"/>
-      <c r="K121" s="40"/>
-      <c r="L121" s="40"/>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="H122" s="40"/>
-      <c r="J122" s="40"/>
-      <c r="K122" s="40"/>
-      <c r="L122" s="40"/>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="H123" s="40"/>
-      <c r="J123" s="40"/>
-      <c r="K123" s="40"/>
-      <c r="L123" s="40"/>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="H124" s="40"/>
-      <c r="J124" s="40"/>
-      <c r="K124" s="40"/>
-      <c r="L124" s="40"/>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="H125" s="40"/>
-      <c r="J125" s="40"/>
-      <c r="K125" s="40"/>
-      <c r="L125" s="40"/>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="H126" s="40"/>
-      <c r="J126" s="40"/>
-      <c r="K126" s="40"/>
-      <c r="L126" s="40"/>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="H127" s="40"/>
-      <c r="J127" s="40"/>
-      <c r="K127" s="40"/>
-      <c r="L127" s="40"/>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="H128" s="40"/>
-      <c r="J128" s="40"/>
-      <c r="K128" s="40"/>
-      <c r="L128" s="40"/>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="H129" s="40"/>
-      <c r="J129" s="40"/>
-      <c r="K129" s="40"/>
-      <c r="L129" s="40"/>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="H130" s="40"/>
-      <c r="J130" s="40"/>
-      <c r="K130" s="40"/>
-      <c r="L130" s="40"/>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="H131" s="40"/>
-      <c r="J131" s="40"/>
-      <c r="K131" s="40"/>
-      <c r="L131" s="40"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="H132" s="40"/>
-      <c r="J132" s="40"/>
-      <c r="K132" s="40"/>
-      <c r="L132" s="40"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="H133" s="40"/>
-      <c r="J133" s="40"/>
-      <c r="K133" s="40"/>
-      <c r="L133" s="40"/>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="H134" s="40"/>
-      <c r="J134" s="40"/>
-      <c r="K134" s="40"/>
-      <c r="L134" s="40"/>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="H135" s="40"/>
-      <c r="J135" s="40"/>
-      <c r="K135" s="40"/>
-      <c r="L135" s="40"/>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="H136" s="40"/>
-      <c r="J136" s="40"/>
-      <c r="K136" s="40"/>
-      <c r="L136" s="40"/>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="H137" s="40"/>
-      <c r="J137" s="40"/>
-      <c r="K137" s="40"/>
-      <c r="L137" s="40"/>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="H138" s="40"/>
-      <c r="J138" s="40"/>
-      <c r="K138" s="40"/>
-      <c r="L138" s="40"/>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="H139" s="40"/>
-      <c r="J139" s="40"/>
-      <c r="K139" s="40"/>
-      <c r="L139" s="40"/>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="H140" s="40"/>
-      <c r="J140" s="40"/>
-      <c r="K140" s="40"/>
-      <c r="L140" s="40"/>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="H141" s="40"/>
-      <c r="J141" s="40"/>
-      <c r="K141" s="40"/>
-      <c r="L141" s="40"/>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="H142" s="40"/>
-      <c r="J142" s="40"/>
-      <c r="K142" s="40"/>
-      <c r="L142" s="40"/>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="H143" s="40"/>
-      <c r="J143" s="40"/>
-      <c r="K143" s="40"/>
-      <c r="L143" s="40"/>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="H144" s="40"/>
-      <c r="J144" s="40"/>
-      <c r="K144" s="40"/>
-      <c r="L144" s="40"/>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="H145" s="40"/>
-      <c r="J145" s="40"/>
-      <c r="K145" s="40"/>
-      <c r="L145" s="40"/>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
-      <c r="H146" s="40"/>
-      <c r="J146" s="40"/>
-      <c r="K146" s="40"/>
-      <c r="L146" s="40"/>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="H147" s="40"/>
-      <c r="J147" s="40"/>
-      <c r="K147" s="40"/>
-      <c r="L147" s="40"/>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="H148" s="40"/>
-      <c r="J148" s="40"/>
-      <c r="K148" s="40"/>
-      <c r="L148" s="40"/>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="H149" s="40"/>
-      <c r="J149" s="40"/>
-      <c r="K149" s="40"/>
-      <c r="L149" s="40"/>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
-      <c r="H150" s="40"/>
-      <c r="J150" s="40"/>
-      <c r="K150" s="40"/>
-      <c r="L150" s="40"/>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
-      <c r="H151" s="40"/>
-      <c r="J151" s="40"/>
-      <c r="K151" s="40"/>
-      <c r="L151" s="40"/>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
-      <c r="H152" s="40"/>
-      <c r="J152" s="40"/>
-      <c r="K152" s="40"/>
-      <c r="L152" s="40"/>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
-      <c r="H153" s="40"/>
-      <c r="J153" s="40"/>
-      <c r="K153" s="40"/>
-      <c r="L153" s="40"/>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="H154" s="40"/>
-      <c r="J154" s="40"/>
-      <c r="K154" s="40"/>
-      <c r="L154" s="40"/>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
-      <c r="H155" s="40"/>
-      <c r="J155" s="40"/>
-      <c r="K155" s="40"/>
-      <c r="L155" s="40"/>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
-      <c r="H156" s="40"/>
-      <c r="J156" s="40"/>
-      <c r="K156" s="40"/>
-      <c r="L156" s="40"/>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
-      <c r="H157" s="40"/>
-      <c r="J157" s="40"/>
-      <c r="K157" s="40"/>
-      <c r="L157" s="40"/>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
-      <c r="H158" s="40"/>
-      <c r="J158" s="40"/>
-      <c r="K158" s="40"/>
-      <c r="L158" s="40"/>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
-      <c r="H159" s="40"/>
-      <c r="J159" s="40"/>
-      <c r="K159" s="40"/>
-      <c r="L159" s="40"/>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
-      <c r="H160" s="40"/>
-      <c r="J160" s="40"/>
-      <c r="K160" s="40"/>
-      <c r="L160" s="40"/>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
-      <c r="H161" s="40"/>
-      <c r="J161" s="40"/>
-      <c r="K161" s="40"/>
-      <c r="L161" s="40"/>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
-      <c r="H162" s="40"/>
-      <c r="J162" s="40"/>
-      <c r="K162" s="40"/>
-      <c r="L162" s="40"/>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
-      <c r="H163" s="40"/>
-      <c r="J163" s="40"/>
-      <c r="K163" s="40"/>
-      <c r="L163" s="40"/>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
-      <c r="H164" s="40"/>
-      <c r="J164" s="40"/>
-      <c r="K164" s="40"/>
-      <c r="L164" s="40"/>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
-      <c r="H165" s="40"/>
-      <c r="J165" s="40"/>
-      <c r="K165" s="40"/>
-      <c r="L165" s="40"/>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
-      <c r="H166" s="40"/>
-      <c r="J166" s="40"/>
-      <c r="K166" s="40"/>
-      <c r="L166" s="40"/>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
-      <c r="H167" s="40"/>
-      <c r="J167" s="40"/>
-      <c r="K167" s="40"/>
-      <c r="L167" s="40"/>
-    </row>
-    <row r="168" ht="15.75" customHeight="1">
-      <c r="H168" s="40"/>
-      <c r="J168" s="40"/>
-      <c r="K168" s="40"/>
-      <c r="L168" s="40"/>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
-      <c r="H169" s="40"/>
-      <c r="J169" s="40"/>
-      <c r="K169" s="40"/>
-      <c r="L169" s="40"/>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
-      <c r="H170" s="40"/>
-      <c r="J170" s="40"/>
-      <c r="K170" s="40"/>
-      <c r="L170" s="40"/>
-    </row>
-    <row r="171" ht="15.75" customHeight="1">
-      <c r="H171" s="40"/>
-      <c r="J171" s="40"/>
-      <c r="K171" s="40"/>
-      <c r="L171" s="40"/>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
-      <c r="H172" s="40"/>
-      <c r="J172" s="40"/>
-      <c r="K172" s="40"/>
-      <c r="L172" s="40"/>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
-      <c r="H173" s="40"/>
-      <c r="J173" s="40"/>
-      <c r="K173" s="40"/>
-      <c r="L173" s="40"/>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
-      <c r="H174" s="40"/>
-      <c r="J174" s="40"/>
-      <c r="K174" s="40"/>
-      <c r="L174" s="40"/>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
-      <c r="H175" s="40"/>
-      <c r="J175" s="40"/>
-      <c r="K175" s="40"/>
-      <c r="L175" s="40"/>
-    </row>
-    <row r="176" ht="15.75" customHeight="1">
-      <c r="H176" s="40"/>
-      <c r="J176" s="40"/>
-      <c r="K176" s="40"/>
-      <c r="L176" s="40"/>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
-      <c r="H177" s="40"/>
-      <c r="J177" s="40"/>
-      <c r="K177" s="40"/>
-      <c r="L177" s="40"/>
-    </row>
-    <row r="178" ht="15.75" customHeight="1">
-      <c r="H178" s="40"/>
-      <c r="J178" s="40"/>
-      <c r="K178" s="40"/>
-      <c r="L178" s="40"/>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
-      <c r="H179" s="40"/>
-      <c r="J179" s="40"/>
-      <c r="K179" s="40"/>
-      <c r="L179" s="40"/>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
-      <c r="H180" s="40"/>
-      <c r="J180" s="40"/>
-      <c r="K180" s="40"/>
-      <c r="L180" s="40"/>
-    </row>
-    <row r="181" ht="15.75" customHeight="1">
-      <c r="H181" s="40"/>
-      <c r="J181" s="40"/>
-      <c r="K181" s="40"/>
-      <c r="L181" s="40"/>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
-      <c r="H182" s="40"/>
-      <c r="J182" s="40"/>
-      <c r="K182" s="40"/>
-      <c r="L182" s="40"/>
-    </row>
-    <row r="183" ht="15.75" customHeight="1">
-      <c r="H183" s="40"/>
-      <c r="J183" s="40"/>
-      <c r="K183" s="40"/>
-      <c r="L183" s="40"/>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
-      <c r="H184" s="40"/>
-      <c r="J184" s="40"/>
-      <c r="K184" s="40"/>
-      <c r="L184" s="40"/>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
-      <c r="H185" s="40"/>
-      <c r="J185" s="40"/>
-      <c r="K185" s="40"/>
-      <c r="L185" s="40"/>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
-      <c r="H186" s="40"/>
-      <c r="J186" s="40"/>
-      <c r="K186" s="40"/>
-      <c r="L186" s="40"/>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
-      <c r="H187" s="40"/>
-      <c r="J187" s="40"/>
-      <c r="K187" s="40"/>
-      <c r="L187" s="40"/>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
-      <c r="H188" s="40"/>
-      <c r="J188" s="40"/>
-      <c r="K188" s="40"/>
-      <c r="L188" s="40"/>
-    </row>
-    <row r="189" ht="15.75" customHeight="1">
-      <c r="H189" s="40"/>
-      <c r="J189" s="40"/>
-      <c r="K189" s="40"/>
-      <c r="L189" s="40"/>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
-      <c r="H190" s="40"/>
-      <c r="J190" s="40"/>
-      <c r="K190" s="40"/>
-      <c r="L190" s="40"/>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
-      <c r="H191" s="40"/>
-      <c r="J191" s="40"/>
-      <c r="K191" s="40"/>
-      <c r="L191" s="40"/>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
-      <c r="H192" s="40"/>
-      <c r="J192" s="40"/>
-      <c r="K192" s="40"/>
-      <c r="L192" s="40"/>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
-      <c r="H193" s="40"/>
-      <c r="J193" s="40"/>
-      <c r="K193" s="40"/>
-      <c r="L193" s="40"/>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
-      <c r="H194" s="40"/>
-      <c r="J194" s="40"/>
-      <c r="K194" s="40"/>
-      <c r="L194" s="40"/>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
-      <c r="H195" s="40"/>
-      <c r="J195" s="40"/>
-      <c r="K195" s="40"/>
-      <c r="L195" s="40"/>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
-      <c r="H196" s="40"/>
-      <c r="J196" s="40"/>
-      <c r="K196" s="40"/>
-      <c r="L196" s="40"/>
-    </row>
-    <row r="197" ht="15.75" customHeight="1">
-      <c r="H197" s="40"/>
-      <c r="J197" s="40"/>
-      <c r="K197" s="40"/>
-      <c r="L197" s="40"/>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
-      <c r="H198" s="40"/>
-      <c r="J198" s="40"/>
-      <c r="K198" s="40"/>
-      <c r="L198" s="40"/>
-    </row>
-    <row r="199" ht="15.75" customHeight="1">
-      <c r="H199" s="40"/>
-      <c r="J199" s="40"/>
-      <c r="K199" s="40"/>
-      <c r="L199" s="40"/>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
-      <c r="H200" s="40"/>
-      <c r="J200" s="40"/>
-      <c r="K200" s="40"/>
-      <c r="L200" s="40"/>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
-      <c r="H201" s="40"/>
-      <c r="J201" s="40"/>
-      <c r="K201" s="40"/>
-      <c r="L201" s="40"/>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
-      <c r="H202" s="40"/>
-      <c r="J202" s="40"/>
-      <c r="K202" s="40"/>
-      <c r="L202" s="40"/>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
-      <c r="H203" s="40"/>
-      <c r="J203" s="40"/>
-      <c r="K203" s="40"/>
-      <c r="L203" s="40"/>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
-      <c r="H204" s="40"/>
-      <c r="J204" s="40"/>
-      <c r="K204" s="40"/>
-      <c r="L204" s="40"/>
-    </row>
-    <row r="205" ht="15.75" customHeight="1">
-      <c r="H205" s="40"/>
-      <c r="J205" s="40"/>
-      <c r="K205" s="40"/>
-      <c r="L205" s="40"/>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
-      <c r="H206" s="40"/>
-      <c r="J206" s="40"/>
-      <c r="K206" s="40"/>
-      <c r="L206" s="40"/>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
-      <c r="H207" s="40"/>
-      <c r="J207" s="40"/>
-      <c r="K207" s="40"/>
-      <c r="L207" s="40"/>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
-      <c r="H208" s="40"/>
-      <c r="J208" s="40"/>
-      <c r="K208" s="40"/>
-      <c r="L208" s="40"/>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
-      <c r="H209" s="40"/>
-      <c r="J209" s="40"/>
-      <c r="K209" s="40"/>
-      <c r="L209" s="40"/>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
-      <c r="H210" s="40"/>
-      <c r="J210" s="40"/>
-      <c r="K210" s="40"/>
-      <c r="L210" s="40"/>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
-      <c r="H211" s="40"/>
-      <c r="J211" s="40"/>
-      <c r="K211" s="40"/>
-      <c r="L211" s="40"/>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
-      <c r="H212" s="40"/>
-      <c r="J212" s="40"/>
-      <c r="K212" s="40"/>
-      <c r="L212" s="40"/>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
-      <c r="H213" s="40"/>
-      <c r="J213" s="40"/>
-      <c r="K213" s="40"/>
-      <c r="L213" s="40"/>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
-      <c r="H214" s="40"/>
-      <c r="J214" s="40"/>
-      <c r="K214" s="40"/>
-      <c r="L214" s="40"/>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="H215" s="40"/>
-      <c r="J215" s="40"/>
-      <c r="K215" s="40"/>
-      <c r="L215" s="40"/>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="H216" s="40"/>
-      <c r="J216" s="40"/>
-      <c r="K216" s="40"/>
-      <c r="L216" s="40"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="H217" s="40"/>
-      <c r="J217" s="40"/>
-      <c r="K217" s="40"/>
-      <c r="L217" s="40"/>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="H218" s="40"/>
-      <c r="J218" s="40"/>
-      <c r="K218" s="40"/>
-      <c r="L218" s="40"/>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="H219" s="40"/>
-      <c r="J219" s="40"/>
-      <c r="K219" s="40"/>
-      <c r="L219" s="40"/>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="H220" s="40"/>
-      <c r="J220" s="40"/>
-      <c r="K220" s="40"/>
-      <c r="L220" s="40"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="H221" s="40"/>
-      <c r="J221" s="40"/>
-      <c r="K221" s="40"/>
-      <c r="L221" s="40"/>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="H222" s="40"/>
-      <c r="J222" s="40"/>
-      <c r="K222" s="40"/>
-      <c r="L222" s="40"/>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="H223" s="40"/>
-      <c r="J223" s="40"/>
-      <c r="K223" s="40"/>
-      <c r="L223" s="40"/>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
-      <c r="H224" s="40"/>
-      <c r="J224" s="40"/>
-      <c r="K224" s="40"/>
-      <c r="L224" s="40"/>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
-      <c r="H225" s="40"/>
-      <c r="J225" s="40"/>
-      <c r="K225" s="40"/>
-      <c r="L225" s="40"/>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="H226" s="40"/>
-      <c r="J226" s="40"/>
-      <c r="K226" s="40"/>
-      <c r="L226" s="40"/>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
-      <c r="H227" s="40"/>
-      <c r="J227" s="40"/>
-      <c r="K227" s="40"/>
-      <c r="L227" s="40"/>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
-      <c r="H228" s="40"/>
-      <c r="J228" s="40"/>
-      <c r="K228" s="40"/>
-      <c r="L228" s="40"/>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
-      <c r="H229" s="40"/>
-      <c r="J229" s="40"/>
-      <c r="K229" s="40"/>
-      <c r="L229" s="40"/>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
-      <c r="H230" s="40"/>
-      <c r="J230" s="40"/>
-      <c r="K230" s="40"/>
-      <c r="L230" s="40"/>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
-      <c r="H231" s="40"/>
-      <c r="J231" s="40"/>
-      <c r="K231" s="40"/>
-      <c r="L231" s="40"/>
-    </row>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <autoFilter ref="$A$1:$L$20">
-    <sortState ref="A1:L20">
-      <sortCondition descending="1" ref="I1:I20"/>
-      <sortCondition ref="A1:A20"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="1">
-    <mergeCell ref="C1:H1"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
     <col customWidth="1" min="1" max="1" width="12.63"/>
     <col customWidth="1" min="2" max="2" width="36.88"/>
     <col customWidth="1" min="3" max="3" width="14.38"/>
@@ -5146,51 +2357,51 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="B1" s="43"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="17"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>54</v>
+      <c r="B3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I3" s="17"/>
-      <c r="J3" s="50" t="s">
-        <v>56</v>
+      <c r="J3" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
@@ -5201,34 +2412,34 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="51">
+      <c r="A4" s="26">
         <v>1.0</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="27">
         <v>3.0</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="27">
         <v>3.0</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="27">
         <v>3.0</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="27">
         <v>3.0</v>
       </c>
-      <c r="G4" s="45">
-        <f t="shared" ref="G4:G15" si="1">SUM(C4:F4)/4</f>
+      <c r="G4" s="20">
+        <f t="shared" ref="G4:G16" si="1">SUM(C4:F4)/4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="20">
         <v>1.0</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54" t="s">
-        <v>57</v>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
@@ -5239,34 +2450,34 @@
       <c r="Q4" s="17"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="51">
+      <c r="A5" s="26">
         <v>3.0</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="27">
         <v>3.0</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="27">
         <v>2.0</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="27">
         <v>3.0</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="27">
         <v>3.0</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="20">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="27">
         <v>2.0</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54" t="s">
-        <v>58</v>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
@@ -5277,34 +2488,34 @@
       <c r="Q5" s="17"/>
     </row>
     <row r="6" ht="20.25" customHeight="1">
-      <c r="A6" s="51">
+      <c r="A6" s="26">
         <v>10.0</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="27">
         <v>3.0</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="27">
         <v>2.0</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="27">
         <v>3.0</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="27">
         <v>3.0</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="20">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="27">
         <v>3.0</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54" t="s">
-        <v>59</v>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -5315,33 +2526,33 @@
       <c r="Q6" s="17"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="51">
+      <c r="A7" s="26">
         <v>12.0</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="27">
         <v>3.0</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="27">
         <v>3.0</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="27">
         <v>3.0</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="27">
         <v>2.0</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="20">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="27">
         <v>4.0</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="55"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -5351,32 +2562,32 @@
       <c r="Q7" s="17"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="51">
+      <c r="A8" s="26">
         <v>6.0</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="27">
         <v>3.0</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="27">
         <v>1.0</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="27">
         <v>3.0</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="27">
         <v>3.0</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="20">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="H8" s="52">
-        <v>5.0</v>
-      </c>
-      <c r="I8" s="53"/>
+      <c r="H8" s="27">
+        <v>6.0</v>
+      </c>
+      <c r="I8" s="28"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
@@ -5387,32 +2598,32 @@
       <c r="Q8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="51">
+      <c r="A9" s="26">
         <v>11.0</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="27">
         <v>3.0</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="27">
         <v>2.0</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="27">
         <v>2.0</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="27">
         <v>2.0</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="20">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
       <c r="H9" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="I9" s="53"/>
+        <v>7.0</v>
+      </c>
+      <c r="I9" s="28"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
@@ -5423,35 +2634,35 @@
       <c r="Q9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="51">
+      <c r="A10" s="26">
         <v>2.0</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="27">
         <v>2.0</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="27">
         <v>2.0</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="27">
         <v>3.0</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="27">
         <v>2.0</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="20">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="H10" s="52">
-        <v>7.0</v>
-      </c>
-      <c r="I10" s="53"/>
+      <c r="H10" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="I10" s="28"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
@@ -5459,38 +2670,38 @@
       <c r="Q10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="51">
+      <c r="A11" s="26">
         <v>4.0</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="27">
         <v>2.0</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="27">
         <v>1.0</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="27">
         <v>3.0</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="27">
         <v>2.0</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H11" s="52">
-        <v>8.0</v>
-      </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="52">
+      <c r="H11" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="27">
         <v>1.0</v>
       </c>
-      <c r="L11" s="52" t="s">
-        <v>60</v>
+      <c r="L11" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
@@ -5499,38 +2710,38 @@
       <c r="Q11" s="17"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="51">
+      <c r="A12" s="26">
         <v>9.0</v>
       </c>
-      <c r="B12" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="52">
+      <c r="B12" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="27">
         <v>2.0</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="27">
         <v>2.0</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="27">
         <v>2.0</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="27">
         <v>2.0</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H12" s="52">
-        <v>9.0</v>
+      <c r="H12" s="27">
+        <v>10.0</v>
       </c>
       <c r="I12" s="17"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="52">
+      <c r="J12" s="20"/>
+      <c r="K12" s="27">
         <v>2.0</v>
       </c>
-      <c r="L12" s="52" t="s">
-        <v>61</v>
+      <c r="L12" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
@@ -5539,38 +2750,38 @@
       <c r="Q12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="51">
+      <c r="A13" s="26">
         <v>7.0</v>
       </c>
-      <c r="B13" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="52">
+      <c r="B13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="27">
         <v>2.0</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="27">
         <v>1.0</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="27">
         <v>3.0</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="27">
         <v>2.0</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H13" s="52">
-        <v>10.0</v>
+      <c r="H13" s="27">
+        <v>11.0</v>
       </c>
       <c r="I13" s="17"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45">
+      <c r="J13" s="20"/>
+      <c r="K13" s="20">
         <v>3.0</v>
       </c>
-      <c r="L13" s="52" t="s">
-        <v>62</v>
+      <c r="L13" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
@@ -5579,30 +2790,30 @@
       <c r="Q13" s="17"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="51">
+      <c r="A14" s="26">
         <v>5.0</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="27">
         <v>2.0</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="27">
         <v>1.0</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="27">
         <v>2.0</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="27">
         <v>2.0</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="20">
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="H14" s="52">
-        <v>11.0</v>
+      <c r="H14" s="27">
+        <v>12.0</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -5615,30 +2826,30 @@
       <c r="Q14" s="17"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="51">
-        <v>8.0</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="52">
+      <c r="A15" s="26">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="27">
         <v>2.0</v>
       </c>
-      <c r="F15" s="52">
+      <c r="D15" s="27">
         <v>2.0</v>
       </c>
-      <c r="G15" s="45">
+      <c r="E15" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F15" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="G15" s="20">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="H15" s="52">
-        <v>12.0</v>
+        <v>2</v>
+      </c>
+      <c r="H15" s="27">
+        <v>5.0</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -5651,14 +2862,31 @@
       <c r="Q15" s="17"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="A16" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="D16" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="H16" s="27">
+        <v>13.0</v>
+      </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -5678,7 +2906,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="14"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
@@ -5697,7 +2925,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
@@ -5715,8 +2943,16 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="14"/>
@@ -5741,606 +2977,616 @@
       <c r="I21" s="14"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="43"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="43"/>
+      <c r="B23" s="18"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="43"/>
+      <c r="B24" s="18"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="43"/>
+      <c r="B25" s="18"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="43"/>
+      <c r="B26" s="18"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="43"/>
+      <c r="B27" s="18"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="43"/>
+      <c r="B28" s="18"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="43"/>
+      <c r="B29" s="18"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="43"/>
+      <c r="B30" s="18"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="43"/>
+      <c r="B31" s="18"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="43"/>
+      <c r="B32" s="18"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="43"/>
+      <c r="B33" s="18"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="43"/>
+      <c r="B34" s="18"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="43"/>
+      <c r="B35" s="18"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="43"/>
+      <c r="B36" s="18"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="43"/>
+      <c r="B37" s="18"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="43"/>
+      <c r="B38" s="18"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="43"/>
+      <c r="B39" s="18"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="43"/>
+      <c r="B40" s="18"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="43"/>
+      <c r="B41" s="18"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="43"/>
+      <c r="B42" s="18"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="43"/>
+      <c r="B43" s="18"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="43"/>
+      <c r="B44" s="18"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="43"/>
+      <c r="B45" s="18"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="43"/>
+      <c r="B46" s="18"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="43"/>
+      <c r="B47" s="18"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="43"/>
+      <c r="B48" s="18"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="43"/>
+      <c r="B49" s="18"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="43"/>
+      <c r="B50" s="18"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="43"/>
+      <c r="B51" s="18"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="43"/>
+      <c r="B52" s="18"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="43"/>
+      <c r="B53" s="18"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="43"/>
+      <c r="B54" s="18"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="43"/>
+      <c r="B55" s="18"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="43"/>
+      <c r="B56" s="18"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="43"/>
+      <c r="B57" s="18"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="43"/>
+      <c r="B58" s="18"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="43"/>
+      <c r="B59" s="18"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="43"/>
+      <c r="B60" s="18"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="43"/>
+      <c r="B61" s="18"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="43"/>
+      <c r="B62" s="18"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="43"/>
+      <c r="B63" s="18"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="43"/>
+      <c r="B64" s="18"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="43"/>
+      <c r="B65" s="18"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="43"/>
+      <c r="B66" s="18"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="43"/>
+      <c r="B67" s="18"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="43"/>
+      <c r="B68" s="18"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="43"/>
+      <c r="B69" s="18"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="43"/>
+      <c r="B70" s="18"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="43"/>
+      <c r="B71" s="18"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="43"/>
+      <c r="B72" s="18"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="43"/>
+      <c r="B73" s="18"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="43"/>
+      <c r="B74" s="18"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="43"/>
+      <c r="B75" s="18"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="43"/>
+      <c r="B76" s="18"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="43"/>
+      <c r="B77" s="18"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="43"/>
+      <c r="B78" s="18"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="43"/>
+      <c r="B79" s="18"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="43"/>
+      <c r="B80" s="18"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="43"/>
+      <c r="B81" s="18"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="43"/>
+      <c r="B82" s="18"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="43"/>
+      <c r="B83" s="18"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="43"/>
+      <c r="B84" s="18"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="43"/>
+      <c r="B85" s="18"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="B86" s="43"/>
+      <c r="B86" s="18"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="43"/>
+      <c r="B87" s="18"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="43"/>
+      <c r="B88" s="18"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="B89" s="43"/>
+      <c r="B89" s="18"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="43"/>
+      <c r="B90" s="18"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="43"/>
+      <c r="B91" s="18"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="43"/>
+      <c r="B92" s="18"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="B93" s="43"/>
+      <c r="B93" s="18"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="B94" s="43"/>
+      <c r="B94" s="18"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="B95" s="43"/>
+      <c r="B95" s="18"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="B96" s="43"/>
+      <c r="B96" s="18"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="B97" s="43"/>
+      <c r="B97" s="18"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="B98" s="43"/>
+      <c r="B98" s="18"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="B99" s="43"/>
+      <c r="B99" s="18"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="B100" s="43"/>
+      <c r="B100" s="18"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="B101" s="43"/>
+      <c r="B101" s="18"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="B102" s="43"/>
+      <c r="B102" s="18"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="B103" s="43"/>
+      <c r="B103" s="18"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="B104" s="43"/>
+      <c r="B104" s="18"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="B105" s="43"/>
+      <c r="B105" s="18"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="B106" s="43"/>
+      <c r="B106" s="18"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="43"/>
+      <c r="B107" s="18"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="43"/>
+      <c r="B108" s="18"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="43"/>
+      <c r="B109" s="18"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="B110" s="43"/>
+      <c r="B110" s="18"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="43"/>
+      <c r="B111" s="18"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="B112" s="43"/>
+      <c r="B112" s="18"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="43"/>
+      <c r="B113" s="18"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="43"/>
+      <c r="B114" s="18"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="43"/>
+      <c r="B115" s="18"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="43"/>
+      <c r="B116" s="18"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="43"/>
+      <c r="B117" s="18"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="43"/>
+      <c r="B118" s="18"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="43"/>
+      <c r="B119" s="18"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="43"/>
+      <c r="B120" s="18"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="43"/>
+      <c r="B121" s="18"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="43"/>
+      <c r="B122" s="18"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="43"/>
+      <c r="B123" s="18"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="43"/>
+      <c r="B124" s="18"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="43"/>
+      <c r="B125" s="18"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="43"/>
+      <c r="B126" s="18"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="43"/>
+      <c r="B127" s="18"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="43"/>
+      <c r="B128" s="18"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="43"/>
+      <c r="B129" s="18"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="43"/>
+      <c r="B130" s="18"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="43"/>
+      <c r="B131" s="18"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="43"/>
+      <c r="B132" s="18"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="43"/>
+      <c r="B133" s="18"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="43"/>
+      <c r="B134" s="18"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="43"/>
+      <c r="B135" s="18"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="43"/>
+      <c r="B136" s="18"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="43"/>
+      <c r="B137" s="18"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="43"/>
+      <c r="B138" s="18"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="43"/>
+      <c r="B139" s="18"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="43"/>
+      <c r="B140" s="18"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="43"/>
+      <c r="B141" s="18"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="43"/>
+      <c r="B142" s="18"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="43"/>
+      <c r="B143" s="18"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="43"/>
+      <c r="B144" s="18"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="43"/>
+      <c r="B145" s="18"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="43"/>
+      <c r="B146" s="18"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="43"/>
+      <c r="B147" s="18"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="43"/>
+      <c r="B148" s="18"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="43"/>
+      <c r="B149" s="18"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="B150" s="43"/>
+      <c r="B150" s="18"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="B151" s="43"/>
+      <c r="B151" s="18"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="B152" s="43"/>
+      <c r="B152" s="18"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="B153" s="43"/>
+      <c r="B153" s="18"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="B154" s="43"/>
+      <c r="B154" s="18"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="B155" s="43"/>
+      <c r="B155" s="18"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="B156" s="43"/>
+      <c r="B156" s="18"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="B157" s="43"/>
+      <c r="B157" s="18"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="B158" s="43"/>
+      <c r="B158" s="18"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="B159" s="43"/>
+      <c r="B159" s="18"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="43"/>
+      <c r="B160" s="18"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="B161" s="43"/>
+      <c r="B161" s="18"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="B162" s="43"/>
+      <c r="B162" s="18"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="B163" s="43"/>
+      <c r="B163" s="18"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="B164" s="43"/>
+      <c r="B164" s="18"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="B165" s="43"/>
+      <c r="B165" s="18"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="B166" s="43"/>
+      <c r="B166" s="18"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="43"/>
+      <c r="B167" s="18"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="43"/>
+      <c r="B168" s="18"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="B169" s="43"/>
+      <c r="B169" s="18"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="43"/>
+      <c r="B170" s="18"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="43"/>
+      <c r="B171" s="18"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="B172" s="43"/>
+      <c r="B172" s="18"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="B173" s="43"/>
+      <c r="B173" s="18"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="43"/>
+      <c r="B174" s="18"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="B175" s="43"/>
+      <c r="B175" s="18"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="43"/>
+      <c r="B176" s="18"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="43"/>
+      <c r="B177" s="18"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="B178" s="43"/>
+      <c r="B178" s="18"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="B179" s="43"/>
+      <c r="B179" s="18"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="B180" s="43"/>
+      <c r="B180" s="18"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="B181" s="43"/>
+      <c r="B181" s="18"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="B182" s="43"/>
+      <c r="B182" s="18"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="B183" s="43"/>
+      <c r="B183" s="18"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="B184" s="43"/>
+      <c r="B184" s="18"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="B185" s="43"/>
+      <c r="B185" s="18"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="B186" s="43"/>
+      <c r="B186" s="18"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="43"/>
+      <c r="B187" s="18"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="B188" s="43"/>
+      <c r="B188" s="18"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="B189" s="43"/>
+      <c r="B189" s="18"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="B190" s="43"/>
+      <c r="B190" s="18"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="B191" s="43"/>
+      <c r="B191" s="18"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="B192" s="43"/>
+      <c r="B192" s="18"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="B193" s="43"/>
+      <c r="B193" s="18"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="B194" s="43"/>
+      <c r="B194" s="18"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="B195" s="43"/>
+      <c r="B195" s="18"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="B196" s="43"/>
+      <c r="B196" s="18"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="B197" s="43"/>
+      <c r="B197" s="18"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="B198" s="43"/>
+      <c r="B198" s="18"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="B199" s="43"/>
+      <c r="B199" s="18"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="B200" s="43"/>
+      <c r="B200" s="18"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="B201" s="43"/>
+      <c r="B201" s="18"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="B202" s="43"/>
+      <c r="B202" s="18"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="B203" s="43"/>
+      <c r="B203" s="18"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="B204" s="43"/>
+      <c r="B204" s="18"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="B205" s="43"/>
+      <c r="B205" s="18"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="B206" s="43"/>
+      <c r="B206" s="18"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="B207" s="43"/>
+      <c r="B207" s="18"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="B208" s="43"/>
+      <c r="B208" s="18"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="B209" s="43"/>
+      <c r="B209" s="18"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="B210" s="43"/>
+      <c r="B210" s="18"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="B211" s="43"/>
+      <c r="B211" s="18"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="B212" s="43"/>
+      <c r="B212" s="18"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="B213" s="43"/>
+      <c r="B213" s="18"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="B214" s="43"/>
+      <c r="B214" s="18"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="B215" s="43"/>
+      <c r="B215" s="18"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="B216" s="43"/>
+      <c r="B216" s="18"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="B217" s="43"/>
+      <c r="B217" s="18"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="B218" s="43"/>
+      <c r="B218" s="18"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="B219" s="43"/>
+      <c r="B219" s="18"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="B220" s="43"/>
+      <c r="B220" s="18"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="B221" s="43"/>
-    </row>
-    <row r="222" ht="15.75" customHeight="1"/>
+      <c r="B221" s="18"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="B222" s="18"/>
+    </row>
     <row r="223" ht="15.75" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
@@ -7119,18 +4365,19 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$3:$H$21">
-    <sortState ref="A3:H21">
-      <sortCondition ref="H3:H21"/>
-      <sortCondition ref="A3:A21"/>
+  <autoFilter ref="$A$3:$H$22">
+    <sortState ref="A3:H22">
+      <sortCondition ref="H3:H22"/>
+      <sortCondition ref="A3:A22"/>
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{CEFE38D4-BF4A-4630-B4C2-BA99B939FECC}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$B$3:$G$21">
-        <sortState ref="B3:G21">
-          <sortCondition descending="1" ref="G3:G21"/>
+    <customSheetView guid="{7EA15FA4-353C-45C6-BAD0-F6F7468298D5}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$B$3:$G$22">
+        <sortState ref="B3:G22">
+          <sortCondition descending="1" ref="G3:G22"/>
         </sortState>
       </autoFilter>
       <extLst>
@@ -7140,17 +4387,17 @@
       </extLst>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="C4:F21">
+  <conditionalFormatting sqref="C4:F22">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F21">
+  <conditionalFormatting sqref="C4:F22">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F21">
+  <conditionalFormatting sqref="C4:F22">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
